--- a/biology/Médecine/Antonio_Cocchi/Antonio_Cocchi.xlsx
+++ b/biology/Médecine/Antonio_Cocchi/Antonio_Cocchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Cocchi né à Bénévent le 3 août 1695 et mort à Florence le 1er janvier 1758
 est un médecin et philologue italien.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Cocchi naquit à Bénévent, en 1695, d’Hyacinthe Cocchi, médecin, originaire du Mugello, en Toscane. Après d’excellentes études, comme il se destinait à la même profession que son père, il s’appliqua aux sciences qui ont des rapports avec la médecine, telles que la physique, la botanique, la chimie, et s’y rendit très-habile, sans négliger pour cela la culture des belles-lettres. Il parcourut ensuite les contrées les plus éclairées de l’Europe, et se fit agréger aux universités les plus célèbres. Ses voyages lui donnèrent occasion de connaître des savants distingués. Newton et Boerhaave apprécièrent son mérite, et entretinrent avec lui une correspondance qui ne finit qu’avec leur vie. De retour dans sa patrie, il fut nommé d’abord professeur de médecine à Pise, et ensuite de philosophie et d’anatomie à Florence. L’empereur François Ier le choisit pour son antiquaire. Bientôt Cocchi justifia ces litres par de très-bons ouvrages. Les élèves accoururent de toutes paris pour entendre ses leçons. Il fut consulté de tous les pays et même par les souverains. C’est à ses soins réunis à ceux de Pier Antonio Micheli, son collègue et son ami, que Florence dut l’établissement d’une société de botanique. Par ordre de l’Empereur, il dressa les règlements de l’hôpital de la même ville. Il possédait les langues modernes de manière à pouvoir converser avec presque tous les étrangers qui venaient à Florence, et ses ouvrages prouvent qu’il n’était pas moins versé dans les langues anciennes. Il mourut le 1er janvier 1758, âgé de 62 ans.
 </t>
@@ -543,9 +557,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>une traduction latine du roman grec de Xénophon d’Éphèse, les Amours d’Anthias et d’Abrocôme, dont il publia, le premier, le texte, d’après un manuscrit conservé à. l’abbaye des bénédictins de Florence, Londres, 1726, in-4°[1] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>une traduction latine du roman grec de Xénophon d’Éphèse, les Amours d’Anthias et d’Abrocôme, dont il publia, le premier, le texte, d’après un manuscrit conservé à. l’abbaye des bénédictins de Florence, Londres, 1726, in-4° ;
 Trattato de bagni di Pisa, Florence, 1750, in-4°, fig. ;
 Consulti medici, Bergame, 2 vol. in-4° ;
 De’ Vermi cucurbitini dell’uomo, Pise, 1759, in-8° ;
